--- a/skill-felmérés.xlsx
+++ b/skill-felmérés.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dani\Documents\GitHub\Dusza-Game-repo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,128 +24,128 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="39">
-  <si>
-    <t xml:space="preserve">Csapat neve:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Undefined</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Részt tudsz-e venni a három workshopon személyesen?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Helyszín: ELTE Informatikai Kar, XI. Kerület
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="39">
+  <si>
+    <t>Csapat neve:</t>
+  </si>
+  <si>
+    <t>Undefined</t>
+  </si>
+  <si>
+    <t>Részt tudsz-e venni a három workshopon személyesen?</t>
+  </si>
+  <si>
+    <t>Helyszín: ELTE Informatikai Kar, XI. Kerület
 Időpont: 9:00-15:00</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Tóth Péter Sándor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Kiss Dániel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.Kovács Dániel Benedek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. Borók Máté</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5. Wágner Ábel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;-- A csapattagok nevét kérjük beírni a cellába</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. workshop - 2024. november 9. szombat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Igen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Igen/Nem/Talán</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. workshop - 2024. december 8. vasárnap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talán</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. workshop - 2025. január 11. szombat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Megjegyzés:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Milyen szinten ismered az alábbi programnyelveket?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-Még nem programoztam benne
+    <t>1. Tóth Péter Sándor</t>
+  </si>
+  <si>
+    <t>2. Kiss Dániel</t>
+  </si>
+  <si>
+    <t>3.Kovács Dániel Benedek</t>
+  </si>
+  <si>
+    <t>4. Borók Máté</t>
+  </si>
+  <si>
+    <t>5. Wágner Ábel</t>
+  </si>
+  <si>
+    <t>&lt;-- A csapattagok nevét kérjük beírni a cellába</t>
+  </si>
+  <si>
+    <t>1. workshop - 2024. november 9. szombat</t>
+  </si>
+  <si>
+    <t>Igen</t>
+  </si>
+  <si>
+    <t>Igen/Nem/Talán</t>
+  </si>
+  <si>
+    <t>2. workshop - 2024. december 8. vasárnap</t>
+  </si>
+  <si>
+    <t>Talán</t>
+  </si>
+  <si>
+    <t>3. workshop - 2025. január 11. szombat</t>
+  </si>
+  <si>
+    <t>Megjegyzés:</t>
+  </si>
+  <si>
+    <t>Milyen szinten ismered az alábbi programnyelveket?</t>
+  </si>
+  <si>
+    <t>1-Még nem programoztam benne
 2-Nemrég kezdtem ismerkedni vele,  most tanulom az alapokat
 3-Alapvető programokat tudok írni (pl. egyszerű algoritmusok, ciklusok és feltételes utasítások használatával)
 4-Már írtam bonyolultabb projekteket is benne (pl. alkalmazások felhasználói felülettel, API integrációk, adatbáziskezelés)</t>
   </si>
   <si>
-    <t xml:space="preserve">Python</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Javascript</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kotlin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rust</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C++</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HTML/CSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egyéb technológiák, keretrendszerek, könyvtárak , módszertanok
+    <t>Python</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Javascript</t>
+  </si>
+  <si>
+    <t>C#</t>
+  </si>
+  <si>
+    <t>Kotlin</t>
+  </si>
+  <si>
+    <t>'1</t>
+  </si>
+  <si>
+    <t>Rust</t>
+  </si>
+  <si>
+    <t>C++</t>
+  </si>
+  <si>
+    <t>HTML/CSS</t>
+  </si>
+  <si>
+    <t>Egyéb technológiák, keretrendszerek, könyvtárak , módszertanok
 (azok, amik a projektötlethez elengedhetetlenek):</t>
   </si>
   <si>
-    <t xml:space="preserve">GDScript</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLSL ES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mennyire megy számodra a grafika/UX tervezés?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1- Nem vonz a terület
+    <t>GDScript</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>GLSL ES</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Mennyire megy számodra a grafika/UX tervezés?</t>
+  </si>
+  <si>
+    <t>1- Nem vonz a terület
 2- Némi érdeklődésem van
 3- Szeretem, és van hozzá érzékem
 4- Szenvedélyesen foglalkozom vele</t>
@@ -150,11 +154,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -163,49 +164,30 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="20"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -218,160 +200,129 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0e2841"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e8e8e8"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="e97132"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196b24"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0f9ed5"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="a02b93"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4ea72e"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607d"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -403,7 +354,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -427,7 +378,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -487,59 +438,58 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.38"/>
+    <col min="1" max="1" width="58" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="15.75">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="26.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="31.5">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" ht="15.75">
       <c r="A5" s="5"/>
       <c r="B5" s="6" t="s">
         <v>4</v>
@@ -556,11 +506,11 @@
       <c r="F5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:7">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -568,7 +518,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>11</v>
@@ -580,7 +530,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:7">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
@@ -588,7 +538,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>14</v>
@@ -600,7 +550,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:7">
       <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
@@ -608,7 +558,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>11</v>
@@ -620,7 +570,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:7">
       <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
@@ -630,22 +580,22 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="12" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:7" ht="26.25">
+      <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" ht="90">
       <c r="A13" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:7" ht="15.75">
       <c r="A14" s="5"/>
       <c r="B14" s="6" t="s">
         <v>4</v>
@@ -662,23 +612,23 @@
       <c r="F14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="8" t="n">
+      <c r="C15" s="13">
         <v>3</v>
       </c>
+      <c r="D15" s="8">
+        <v>3</v>
+      </c>
       <c r="E15" s="5" t="s">
         <v>21</v>
       </c>
@@ -686,17 +636,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:7">
       <c r="A16" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="8" t="n">
+      <c r="C16" s="13">
+        <v>1</v>
+      </c>
+      <c r="D16" s="8">
         <v>1</v>
       </c>
       <c r="E16" s="5" t="s">
@@ -706,17 +656,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:7">
       <c r="A17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="8" t="n">
+      <c r="C17" s="13">
+        <v>2</v>
+      </c>
+      <c r="D17" s="8">
         <v>4</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -726,17 +676,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:7">
       <c r="A18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="9" t="n">
+      <c r="C18" s="13">
+        <v>1</v>
+      </c>
+      <c r="D18" s="9">
         <v>1</v>
       </c>
       <c r="E18" s="5" t="s">
@@ -746,17 +696,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:7">
       <c r="A19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="9" t="n">
+      <c r="C19" s="13">
+        <v>1</v>
+      </c>
+      <c r="D19" s="9">
         <v>1</v>
       </c>
       <c r="E19" s="5" t="s">
@@ -766,17 +716,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:7">
       <c r="A20" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="8" t="n">
+      <c r="C20" s="13">
+        <v>1</v>
+      </c>
+      <c r="D20" s="8">
         <v>1</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -786,17 +736,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:7">
       <c r="A21" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="8" t="n">
+      <c r="C21" s="13">
+        <v>1</v>
+      </c>
+      <c r="D21" s="8">
         <v>2</v>
       </c>
       <c r="E21" s="5" t="s">
@@ -806,19 +756,19 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:7">
       <c r="A22" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="8" t="n">
+      <c r="C22" s="13">
         <v>3</v>
       </c>
+      <c r="D22" s="8">
+        <v>3</v>
+      </c>
       <c r="E22" s="5" t="s">
         <v>21</v>
       </c>
@@ -826,7 +776,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:7" ht="30">
       <c r="A23" s="10" t="s">
         <v>31</v>
       </c>
@@ -836,19 +786,19 @@
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:7">
       <c r="A24" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="8" t="n">
+      <c r="C24" s="13">
         <v>2</v>
       </c>
+      <c r="D24" s="8">
+        <v>2</v>
+      </c>
       <c r="E24" s="5" t="s">
         <v>21</v>
       </c>
@@ -856,17 +806,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:7">
       <c r="A25" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="8" t="n">
+      <c r="C25" s="13">
+        <v>1</v>
+      </c>
+      <c r="D25" s="8">
         <v>1</v>
       </c>
       <c r="E25" s="5" t="s">
@@ -876,7 +826,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:7">
       <c r="A26" s="11" t="s">
         <v>36</v>
       </c>
@@ -886,17 +836,17 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
     </row>
-    <row r="29" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:7" ht="26.25">
+      <c r="A29" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" ht="63">
       <c r="A30" s="7" t="s">
         <v>38</v>
       </c>
@@ -906,7 +856,7 @@
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:7" ht="15.75">
       <c r="B31" s="6" t="s">
         <v>4</v>
       </c>
@@ -922,18 +872,18 @@
       <c r="F31" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:7">
       <c r="B32" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" s="8" t="n">
+      <c r="C32" s="9">
+        <v>2</v>
+      </c>
+      <c r="D32" s="8">
         <v>3</v>
       </c>
       <c r="E32" s="5" t="s">
@@ -949,12 +899,7 @@
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A29:F29"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/skill-felmérés.xlsx
+++ b/skill-felmérés.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dani\Documents\GitHub\Dusza-Game-repo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Dusza-Game-repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1B762F-9135-4860-A95C-ACF336E2FB16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="39">
   <si>
     <t>Csapat neve:</t>
   </si>
@@ -154,8 +155,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -226,9 +227,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -245,17 +246,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -449,24 +447,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="58" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24.375" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="18.125" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -474,22 +472,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="26.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" ht="31.5">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="6" t="s">
         <v>4</v>
@@ -510,7 +508,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -524,13 +522,13 @@
         <v>11</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
@@ -544,13 +542,13 @@
         <v>14</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
@@ -564,13 +562,13 @@
         <v>11</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
@@ -580,22 +578,22 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="26.25">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" ht="90">
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="6" t="s">
         <v>4</v>
@@ -616,168 +614,168 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="11">
         <v>3</v>
       </c>
       <c r="D15" s="8">
         <v>3</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>21</v>
+      <c r="E15" s="8">
+        <v>4</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="11">
         <v>1</v>
       </c>
       <c r="D16" s="8">
         <v>1</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>21</v>
+      <c r="E16" s="8">
+        <v>1</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="11">
         <v>2</v>
       </c>
       <c r="D17" s="8">
         <v>4</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>21</v>
+      <c r="E17" s="8">
+        <v>3</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="13">
-        <v>1</v>
-      </c>
-      <c r="D18" s="9">
-        <v>1</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>21</v>
+      <c r="C18" s="11">
+        <v>1</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="13">
-        <v>1</v>
-      </c>
-      <c r="D19" s="9">
-        <v>1</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>21</v>
+      <c r="C19" s="11">
+        <v>1</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="11">
         <v>1</v>
       </c>
       <c r="D20" s="8">
         <v>1</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>21</v>
+      <c r="E20" s="8">
+        <v>1</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="11">
         <v>1</v>
       </c>
       <c r="D21" s="8">
         <v>2</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>21</v>
+      <c r="E21" s="8">
+        <v>1</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="11">
         <v>3</v>
       </c>
       <c r="D22" s="8">
         <v>3</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>21</v>
+      <c r="E22" s="8">
+        <v>3</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30">
-      <c r="A23" s="10" t="s">
+    <row r="23" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="5"/>
@@ -786,48 +784,48 @@
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="11" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="11">
         <v>2</v>
       </c>
       <c r="D24" s="8">
         <v>2</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>21</v>
+      <c r="E24" s="5">
+        <v>3</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="11" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="11">
         <v>1</v>
       </c>
       <c r="D25" s="8">
         <v>1</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>21</v>
+      <c r="E25" s="5">
+        <v>1</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="11" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="5"/>
@@ -836,27 +834,27 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
     </row>
-    <row r="29" spans="1:7" ht="26.25">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A29" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" ht="63">
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+    </row>
+    <row r="30" spans="1:7" ht="65.25" x14ac:dyDescent="0.4">
       <c r="A30" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-    </row>
-    <row r="31" spans="1:7" ht="15.75">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
         <v>4</v>
       </c>
@@ -876,18 +874,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="8">
         <v>2</v>
       </c>
       <c r="D32" s="8">
         <v>3</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>21</v>
+      <c r="E32" s="5">
+        <v>2</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>21</v>

--- a/skill-felmérés.xlsx
+++ b/skill-felmérés.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Dusza-Game-repo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wgnra\Documents\GitHub\Dusza-Game-repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1B762F-9135-4860-A95C-ACF336E2FB16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA89D02-323C-4440-A69E-251B675CDACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
   <si>
     <t>Csapat neve:</t>
   </si>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>Igen</t>
-  </si>
-  <si>
-    <t>Igen/Nem/Talán</t>
   </si>
   <si>
     <t>2. workshop - 2024. december 8. vasárnap</t>
@@ -92,9 +89,6 @@
   </si>
   <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>1-4</t>
   </si>
   <si>
     <t>Java</t>
@@ -450,8 +444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -525,32 +519,32 @@
         <v>11</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>11</v>
@@ -565,12 +559,12 @@
         <v>11</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -580,7 +574,7 @@
     </row>
     <row r="12" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A12" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -590,7 +584,7 @@
     </row>
     <row r="13" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -616,10 +610,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="C15" s="11">
         <v>3</v>
@@ -630,16 +624,16 @@
       <c r="E15" s="8">
         <v>4</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>21</v>
+      <c r="F15" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16" s="11">
         <v>1</v>
@@ -650,16 +644,16 @@
       <c r="E16" s="8">
         <v>1</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>21</v>
+      <c r="F16" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="11">
         <v>2</v>
@@ -670,16 +664,16 @@
       <c r="E17" s="8">
         <v>3</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>21</v>
+      <c r="F17" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C18" s="11">
         <v>1</v>
@@ -690,16 +684,16 @@
       <c r="E18" s="8">
         <v>1</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>21</v>
+      <c r="F18" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C19" s="11">
         <v>1</v>
@@ -710,16 +704,16 @@
       <c r="E19" s="8">
         <v>1</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>21</v>
+      <c r="F19" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20" s="11">
         <v>1</v>
@@ -730,16 +724,16 @@
       <c r="E20" s="8">
         <v>1</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>21</v>
+      <c r="F20" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C21" s="11">
         <v>1</v>
@@ -750,16 +744,16 @@
       <c r="E21" s="8">
         <v>1</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>21</v>
+      <c r="F21" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="11">
         <v>3</v>
@@ -770,13 +764,13 @@
       <c r="E22" s="8">
         <v>3</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>21</v>
+      <c r="F22" s="8">
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -786,10 +780,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C24" s="11">
         <v>2</v>
@@ -800,16 +794,16 @@
       <c r="E24" s="5">
         <v>3</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>21</v>
+      <c r="F24" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C25" s="11">
         <v>1</v>
@@ -820,13 +814,13 @@
       <c r="E25" s="5">
         <v>1</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>21</v>
+      <c r="F25" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -836,7 +830,7 @@
     </row>
     <row r="29" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A29" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -846,7 +840,7 @@
     </row>
     <row r="30" spans="1:7" ht="65.25" x14ac:dyDescent="0.4">
       <c r="A30" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -876,7 +870,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C32" s="8">
         <v>2</v>
@@ -887,8 +881,8 @@
       <c r="E32" s="5">
         <v>2</v>
       </c>
-      <c r="F32" s="5" t="s">
-        <v>21</v>
+      <c r="F32" s="8">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
